--- a/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
+++ b/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Documentos\ANALISIS Y DESARROLLO DE SOFTWARE (2919581)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb5a46966f243cc/Documentos/ANALISIS Y DESARROLLO DE SOFTWARE (2919581)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_9DA62F1B8F2B3910446563EAD332B0D17AC39BE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF45EAD9-181C-4FF0-814D-CAA78319D921}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUISITOS_MODULO_USUARIOS" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,26 @@
     <sheet name="REQUISITOS_MODULO_COLABORACIÓN" sheetId="7" r:id="rId4"/>
     <sheet name="REQUISITOS_MODULO_PERSONALIZA." sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="144">
   <si>
     <t>MODULO</t>
   </si>
@@ -63,118 +73,151 @@
     <t>Registrarse</t>
   </si>
   <si>
+    <t>El sistema debe permitir al  Miembro de proyecto y cliente/StakeHolder Registrarse</t>
+  </si>
+  <si>
     <t>Funcional</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
+    <t>RF02</t>
+  </si>
+  <si>
     <t>Iniciar Sesión</t>
   </si>
   <si>
-    <t>RF02</t>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Iniciar Sesión</t>
   </si>
   <si>
     <t>RF03</t>
   </si>
   <si>
+    <t>Recuperar Contraseña</t>
+  </si>
+  <si>
+    <t>RF04</t>
+  </si>
+  <si>
+    <t>Crear Rol</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador Crear Rol</t>
+  </si>
+  <si>
+    <t>RF05</t>
+  </si>
+  <si>
+    <t>Asignar Rol</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador Asignar Rol</t>
+  </si>
+  <si>
+    <t>RF06</t>
+  </si>
+  <si>
+    <t>Actualizar Rol</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador Actualizar Rol</t>
+  </si>
+  <si>
+    <t>RF07</t>
+  </si>
+  <si>
+    <t>Consultar Roles</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador Consultar Roles</t>
+  </si>
+  <si>
+    <t>RF08</t>
+  </si>
+  <si>
+    <t>Eliminar Rol</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador Eliminar Rol</t>
+  </si>
+  <si>
+    <t>RF09</t>
+  </si>
+  <si>
+    <t>Crear Usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Crear Usuario</t>
+  </si>
+  <si>
+    <t>RF10</t>
+  </si>
+  <si>
+    <t>Consultar Usuarios</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Consultar Usuarios</t>
+  </si>
+  <si>
+    <t>RF11</t>
+  </si>
+  <si>
+    <t>Consultar Usuarios por ID</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Consultar Usuarios por ID</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>RF12</t>
+  </si>
+  <si>
+    <t>Actualizar Usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Actualizar Usuario</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>Editar Perfil</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Miembro de proyecto y cliente/StakeHolder Editar Perfil</t>
+  </si>
+  <si>
+    <t>RF14</t>
+  </si>
+  <si>
+    <t>Eliminar Usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Eliminar Usuario</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t>Cancelar Cuenta</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Miembro de proyecto y cliente/StakeHolder Cancelar Cuenta</t>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
     <t>Cerrar Sesión</t>
   </si>
   <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Iniciar Sesión</t>
-  </si>
-  <si>
     <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Cerrar Sesión</t>
   </si>
   <si>
-    <t>RF04</t>
-  </si>
-  <si>
-    <t>Recuperar Contraseña</t>
-  </si>
-  <si>
-    <t>El sistema debe permiri al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Recuperar Contraseña</t>
-  </si>
-  <si>
-    <t>RF05</t>
-  </si>
-  <si>
-    <t>RF06</t>
-  </si>
-  <si>
-    <t>Crear Rol</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador Crear Rol</t>
-  </si>
-  <si>
-    <t>RF07</t>
-  </si>
-  <si>
-    <t>Asignar Rol</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador Asignar Rol</t>
-  </si>
-  <si>
-    <t>RF08</t>
-  </si>
-  <si>
-    <t>Actualizar Rol</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador Actualizar Rol</t>
-  </si>
-  <si>
-    <t>RF09</t>
-  </si>
-  <si>
-    <t>Eliminar Rol</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador Eliminar Rol</t>
-  </si>
-  <si>
-    <t>RF10</t>
-  </si>
-  <si>
-    <t>Crear Usuario</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Crear Usuario</t>
-  </si>
-  <si>
-    <t>RF11</t>
-  </si>
-  <si>
-    <t>Consultar Usuarios</t>
-  </si>
-  <si>
-    <t>RF12</t>
-  </si>
-  <si>
-    <t>Consultar Usuarios por ID</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>RF13</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Consultar Usuarios</t>
-  </si>
-  <si>
-    <t>Actualizar Usuario</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
-    <t>Eliminar Usuario</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Eliminar Usuario</t>
+    <t>GESTION PROYECTO</t>
   </si>
   <si>
     <t>Crear Proyecto</t>
@@ -183,6 +226,30 @@
     <t>El sistema debe permitir al Administrador y Lider de proyecto Crear Proyecto</t>
   </si>
   <si>
+    <t>Crear Plantillas de Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Crear Plantillas de Proyecto</t>
+  </si>
+  <si>
+    <t>Utilizar Plantillas de Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Utilizar Plantillas de Proyecto</t>
+  </si>
+  <si>
+    <t>Definir Fechas</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Definir Fechas</t>
+  </si>
+  <si>
+    <t>Definir Prioridad</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Definir Prioridad</t>
+  </si>
+  <si>
     <t>Editar Proyecto</t>
   </si>
   <si>
@@ -201,13 +268,40 @@
     <t>El sistema debe permitir al Administrador y Lider de proyecto Asignar Proyecto</t>
   </si>
   <si>
+    <t>Visualizar Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Visualizar Proyecto</t>
+  </si>
+  <si>
     <t>Cambiar Estado de Proyecto</t>
   </si>
   <si>
     <t>El sistema debe permitir al Administrador y Lider de proyecto Cambiar Estado de Proyecto</t>
   </si>
   <si>
-    <t>GESTION PROYECTO</t>
+    <t>Filtrar Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de poyecto y Miembro de proyecto Filtrar Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar Permisos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir al Administrador y Lider de proyecto Gestionar Permisos </t>
+  </si>
+  <si>
+    <t>Agregar Miembros de Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Agregar Miembros de Proyecto</t>
+  </si>
+  <si>
+    <t>Eliminar Miembros de Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador y Lider de proyecto Eliminar Miembros de Proyecto</t>
   </si>
   <si>
     <t>GESTION TAREAS</t>
@@ -222,18 +316,6 @@
     <t>El sistema debe permitir al Administrador y Lider de proyecto Definir Tiempos</t>
   </si>
   <si>
-    <t>Definir Prioridad</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Definir Prioridad</t>
-  </si>
-  <si>
-    <t>Definir Fechas</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Definir Fechas</t>
-  </si>
-  <si>
     <t>Editar Tarea</t>
   </si>
   <si>
@@ -252,90 +334,24 @@
     <t>El sistema debe permitir al Administrador y Lider de Proyecto Asignar Tarea</t>
   </si>
   <si>
-    <t>Visualizar Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Visualizar Proyecto</t>
-  </si>
-  <si>
     <t>Cambiar Estado de Tarea</t>
   </si>
   <si>
+    <t>El sistema debe permitir al Administrador, Lider de Proyecto y Miembro de Proyecto Cambiar Estado de Tarea</t>
+  </si>
+  <si>
+    <t>Filtrar Tarea</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Filtrar Tarea</t>
+  </si>
+  <si>
     <t>Visualizar Tarea</t>
   </si>
   <si>
-    <t>Filtrar Tarea</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Filtrar Tarea</t>
-  </si>
-  <si>
-    <t>Filtrar Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de poyecto y Miembro de proyecto Filtrar Proyecto</t>
-  </si>
-  <si>
     <t>El sistema debe permitir al Administrador, Lider de Proyecto, Miembro de proyecto y cliente/StakHolder Visualizar Tarea</t>
   </si>
   <si>
-    <t>Crear Plantillas de Proyecto</t>
-  </si>
-  <si>
-    <t>Utilizar Plantillas de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Crear Plantillas de Proyecto</t>
-  </si>
-  <si>
-    <t>Agregar Miembros de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Agregar Miembros de Proyecto</t>
-  </si>
-  <si>
-    <t>Eliminar Miembros de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Eliminar Miembros de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador y Lider de proyecto Actualizar Usuario</t>
-  </si>
-  <si>
-    <t>RF15</t>
-  </si>
-  <si>
-    <t>Editar Perfil</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Miembro de proyecto y cliente/StakeHolder Editar Perfil</t>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>Cancelar Cuenta</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Miembro de proyecto y cliente/StakeHolder Cancelar Cuenta</t>
-  </si>
-  <si>
-    <t>Agregar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>Crear Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Crear Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>Asignar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Asignar Etiquetas Personalizadas a las tareas</t>
-  </si>
-  <si>
     <t>COLABORACIÓN</t>
   </si>
   <si>
@@ -354,115 +370,124 @@
     <t>Enviar Mensajes Directos</t>
   </si>
   <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Enviar Mensajes Directos</t>
+  </si>
+  <si>
     <t>Enviar Mensajes Grupales</t>
   </si>
   <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Consultar Usuarios por ID</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al  Miembro de proyecto y cliente/StakeHolder Registrarse</t>
-  </si>
-  <si>
-    <t>Consultar Roles</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador Consultar Roles</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Utilizar Plantillas de Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de Proyecto y Miembro de Proyecto Cambiar Estado de Tarea</t>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Enviar Mensajes Grupales</t>
+  </si>
+  <si>
+    <t>Notificar Eventos Importantes</t>
   </si>
   <si>
     <t>El sistema debe enviar notificaciones importantes en tiempo real para eventos importantes como la creación de proyectos, 
 asignación de tareas, etc. Al Administrador, Lider de proyecto y Miembro de proyecto</t>
   </si>
   <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Enviar Mensajes Directos</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Enviar Mensajes Grupales</t>
+    <t>Visualizar Notificaciones</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Notificaciones</t>
+  </si>
+  <si>
+    <t>Registrar Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Registrar Tiempo dedicado a cada tarea </t>
   </si>
   <si>
     <t>Obtener Reportes de Tiempo por Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema debe permitir al Administrador y Lider de proyecto Gestionar Permisos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestionar Permisos </t>
-  </si>
-  <si>
-    <t>Visualizar Notificaciones</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Notificaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Registrar Tiempo dedicado a cada tarea </t>
   </si>
   <si>
     <t>El sistema deberá permitir al Administrador, Lider de proyecto, Miembro de proyecto y Cliente/StakeHolder Obtener Reportes 
 de Tiempo por Proyecto</t>
   </si>
   <si>
+    <t>Adjuntar Archivos desde Servicios de Almacenamiento en  la Nube</t>
+  </si>
+  <si>
     <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Adjuntar Archivos desde Servicios de Almacenamiento en la Nube</t>
   </si>
   <si>
-    <t>Adjuntar Archivos desde Servicios de Almacenamiento en  la Nube</t>
-  </si>
-  <si>
-    <t>Registrar Tiempo</t>
-  </si>
-  <si>
-    <t>Notificar Eventos Importantes</t>
-  </si>
-  <si>
     <t>PERSONALIZACIÓN</t>
   </si>
   <si>
+    <t>Agregar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Agregar Campos Personalizados a formularios de creacion de  proyectos o tareas</t>
+  </si>
+  <si>
+    <t>Editar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Editar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>Eliminar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Eliminar Campos Personalizados</t>
+  </si>
+  <si>
+    <t>Crear Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Crear Etiquetas Personalizadas</t>
+  </si>
+  <si>
     <t>Editar Etiquetas Personalizadas</t>
   </si>
   <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Editar Etiquetas Personalizadas</t>
+  </si>
+  <si>
     <t>Eliminar Etiquetas Personalizadas</t>
   </si>
   <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Agregar Campos Personalizados a formularios de creacion de  proyectos o tareas</t>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Eliminar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>Asignar Etiquetas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Asignar Etiquetas Personalizadas a las tareas</t>
   </si>
   <si>
     <t>Visualizar Etiquetas Personalizadas</t>
   </si>
   <si>
-    <t>Editar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>Eliminar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Editar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Editar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Eliminar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Eliminar Campos Personalizados</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sitema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Etiquetas Personalizadas </t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>Modificar Contraseña</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Recuperar Contraseña</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Modificar su Contraseña en la edición de su perfil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -787,23 +812,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -834,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -842,293 +867,311 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1159,58 +1202,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1221,117 +1264,117 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -1340,61 +1383,61 @@
         <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,34 +1446,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1450,24 +1493,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1475,132 +1518,132 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1609,34 +1652,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1656,157 +1699,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1815,34 +1858,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1862,140 +1905,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>138</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
+++ b/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb5a46966f243cc/Documentos/ANALISIS Y DESARROLLO DE SOFTWARE (2919581)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_9DA62F1B8F2B3910446563EAD332B0D17AC39BE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF45EAD9-181C-4FF0-814D-CAA78319D921}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_9DA62F1B8F2B3910446563EAD332B0D17AC39BE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D99FCA-162B-4973-8275-63186BB2B0AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUISITOS_MODULO_USUARIOS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="146">
   <si>
     <t>MODULO</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Editar Proyecto</t>
   </si>
   <si>
-    <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de Proyecto Editar Proyecto</t>
-  </si>
-  <si>
     <t>Eliminar Proyecto</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
   </si>
   <si>
     <t>Filtrar Proyecto</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al Administrador, Lider de poyecto y Miembro de proyecto Filtrar Proyecto</t>
   </si>
   <si>
     <t xml:space="preserve">Gestionar Permisos </t>
@@ -472,6 +466,18 @@
   </si>
   <si>
     <t>El sistema debe permitir al Administrador, Lider de proyecto, Miembro de proyecto y cliente/StakeHolder Modificar su Contraseña en la edición de su perfil</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de proyecto Editar Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al Administrador, Lider de poyecto, Miembro de proyecto y cliente/StakeHolder Filtrar Proyecto</t>
+  </si>
+  <si>
+    <t>Eliminar Plantillas de Proyecto</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al Administrador y Lider de proyecto Eliminar Plantillas de Proyecto</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -915,10 +921,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1133,7 +1139,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -1156,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,16 +1264,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1275,10 +1281,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1292,10 +1298,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1309,10 +1315,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1326,10 +1332,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1343,10 +1349,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1360,10 +1366,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1377,10 +1383,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1394,10 +1400,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1411,10 +1417,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1428,10 +1434,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1440,7 +1446,25 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1467,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1498,10 +1522,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1518,7 +1542,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1549,10 +1573,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1566,10 +1590,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1583,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1600,10 +1624,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1617,10 +1641,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1634,10 +1658,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1673,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1704,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1721,10 +1745,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1738,10 +1762,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1755,10 +1779,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1772,10 +1796,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1789,10 +1813,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -1806,10 +1830,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1823,10 +1847,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1840,10 +1864,10 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1879,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1910,10 +1934,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1927,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1944,10 +1968,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1961,10 +1985,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1978,10 +2002,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1995,10 +2019,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2012,10 +2036,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2029,10 +2053,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>

--- a/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
+++ b/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb5a46966f243cc/Documentos/ANALISIS Y DESARROLLO DE SOFTWARE (2919581)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TaskMasterPro\docs\trim01\04_requisitos_funcionales_y_no_funcionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_9DA62F1B8F2B3910446563EAD332B0D17AC39BE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D99FCA-162B-4973-8275-63186BB2B0AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DFF38C-9E71-49F2-A3D1-9F113BBB7C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUISITOS_MODULO_USUARIOS" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1679,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
+++ b/docs/trim01/04_requisitos_funcionales_y_no_funcionales/REQUISITOS FUNCIONALES PROYECTO.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TaskMasterPro\docs\trim01\04_requisitos_funcionales_y_no_funcionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb5a46966f243cc/Documentos/ANALISIS Y DESARROLLO DE SOFTWARE (2919581)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DFF38C-9E71-49F2-A3D1-9F113BBB7C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_9DA62F1B8F2B3910446563EAD332B0D17AC39BE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0172CB78-1570-4C0F-83C7-F366D56F5ADA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUISITOS_MODULO_USUARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="REQUISITOS_MODULO_GP" sheetId="3" r:id="rId2"/>
     <sheet name="REQUISITOS_MODULO_GT" sheetId="4" r:id="rId3"/>
     <sheet name="REQUISITOS_MODULO_COLABORACIÓN" sheetId="7" r:id="rId4"/>
-    <sheet name="REQUISITOS_MODULO_PERSONALIZA." sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="126">
   <si>
     <t>MODULO</t>
   </si>
@@ -68,12 +67,6 @@
   </si>
   <si>
     <t>RF01</t>
-  </si>
-  <si>
-    <t>Registrarse</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al  Miembro de proyecto y cliente/StakeHolder Registrarse</t>
   </si>
   <si>
     <t>Funcional</t>
@@ -403,60 +396,6 @@
   </si>
   <si>
     <t>El sistema debe permitir al Administrador, Lider de proyecto y Miembro de proyecto Adjuntar Archivos desde Servicios de Almacenamiento en la Nube</t>
-  </si>
-  <si>
-    <t>PERSONALIZACIÓN</t>
-  </si>
-  <si>
-    <t>Agregar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Agregar Campos Personalizados a formularios de creacion de  proyectos o tareas</t>
-  </si>
-  <si>
-    <t>Editar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Editar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>Eliminar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador y Lider de proyecto Eliminar Campos Personalizados</t>
-  </si>
-  <si>
-    <t>Crear Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Crear Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>Editar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Editar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>Eliminar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Eliminar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>Asignar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Asignar Etiquetas Personalizadas a las tareas</t>
-  </si>
-  <si>
-    <t>Visualizar Etiquetas Personalizadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sitema deberá permitir al Administrador, Lider de proyecto y Miembro de proyecto Visualizar Etiquetas Personalizadas </t>
-  </si>
-  <si>
-    <t>RF17</t>
   </si>
   <si>
     <t>Modificar Contraseña</t>
@@ -819,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,288 +809,271 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1087,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1213,254 +1135,254 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1396,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1522,152 +1444,152 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1679,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1697,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1728,345 +1650,155 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>